--- a/medicine/Enfance/Robert_Alexandre/Robert_Alexandre.xlsx
+++ b/medicine/Enfance/Robert_Alexandre/Robert_Alexandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Alexandre, ou Axel André, pseudonymes de Robert Faure[1], est un écrivain français de science-fiction originaire de Saint-Bonnet-le-Château[2], connu principalement pour sa série à succès Mykir parue dans la collection du Signe de piste, avec des illustrations de Pierre Joubert.
-Robert Alexandre a illustré plusieurs de ses romans, en adoptant le pseudonyme de Frédéric Argès[3]. 
-Originaire de la Loire où son père est ajusteur dans une usine de cadres de bicyclettes[4], il étudie au lycée Claude-Fauriel de Saint-Étienne et passe le Bac D en 1968. Il monte à Paris et reçoit en mai 1973 le premier « Prix des moins de 25 ans » créé par Alsatia pour la collection Signe de piste, qui lui est remis par Jacques Médecin. 
-Il travaille au tri postal à la Gare de l'Est, avec des horaires de nuit qui lui permettent d'écrire et dessiner pendant la journée[1]. Il habite dans un foyer de jeunes travailleurs à Saint-Denis, puis dans un petit appartement avenue Aristide Briand au Blanc-Mesnil[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Alexandre, ou Axel André, pseudonymes de Robert Faure, est un écrivain français de science-fiction originaire de Saint-Bonnet-le-Château, connu principalement pour sa série à succès Mykir parue dans la collection du Signe de piste, avec des illustrations de Pierre Joubert.
+Robert Alexandre a illustré plusieurs de ses romans, en adoptant le pseudonyme de Frédéric Argès. 
+Originaire de la Loire où son père est ajusteur dans une usine de cadres de bicyclettes, il étudie au lycée Claude-Fauriel de Saint-Étienne et passe le Bac D en 1968. Il monte à Paris et reçoit en mai 1973 le premier « Prix des moins de 25 ans » créé par Alsatia pour la collection Signe de piste, qui lui est remis par Jacques Médecin. 
+Il travaille au tri postal à la Gare de l'Est, avec des horaires de nuit qui lui permettent d'écrire et dessiner pendant la journée. Il habite dans un foyer de jeunes travailleurs à Saint-Denis, puis dans un petit appartement avenue Aristide Briand au Blanc-Mesnil.
 </t>
         </is>
       </c>
@@ -516,10 +528,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Au Signe de piste
-Série Mykir[5]
+          <t>Au Signe de piste</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Série Mykir
 Le Survivant, 1973 - Prix des moins de 25 ans
-Les Révoltés d'Amaranthe, 1974[6]
+Les Révoltés d'Amaranthe, 1974
 Le Sacrifice de Kod Linkhar (nouvelle) dans La Fusée Signe de Piste 74
 Les Gardiens de l'univers, 1976
 Escale sur Mytilia, 1976
@@ -533,9 +550,7 @@
 La Parenthèse, 1978
 Sous le pseudonyme d'Axel André
 Didier mon ami, 1976
-Le Sauvage, 1977
-Autres éditeurs
-Yriel, 1989, Fleuve noir  (ISBN 2265041408)</t>
+Le Sauvage, 1977</t>
         </is>
       </c>
     </row>
@@ -560,10 +575,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres éditeurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yriel, 1989, Fleuve noir  (ISBN 2265041408)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert_Alexandre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_Alexandre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1973 - "Prix des moins de 25 ans" de la collection Signe de Piste
 1973 - Médaille d'Or de la Ville de Nice</t>
